--- a/biology/Zoologie/Escaphiella_hespera/Escaphiella_hespera.xlsx
+++ b/biology/Zoologie/Escaphiella_hespera/Escaphiella_hespera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Escaphiella hespera est une espèce d'araignées aranéomorphes de la famille des Oonopidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Escaphiella hespera est une espèce d'araignées aranéomorphes de la famille des Oonopidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1],[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre, :
 aux États-Unis en Californie, au Nevada, en Utah, en Arizona, au Nouveau-Mexique et au Texas ;
 au Mexique en Basse-Californie, en Basse-Californie du Sud, au Sonora, au Chihuahua, au Sinaloa, au Nayarit, au Durango, au Coahuila, au Nuevo León, au Tamaulipas et au San Luis Potosí.</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Platnick et Dupérré en  2009 mesure 1,57 mm et la femelle 1,52 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Platnick et Dupérré en  2009 mesure 1,57 mm et la femelle 1,52 mm.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chamberlin, 1924 : The spider fauna of the shores and islands of the Gulf of California. Proceedings of the California Academy of Sciences, sér. 4, vol. 12, p. 561-694 (texte intégral).</t>
         </is>
